--- a/CSSE-3.xlsx
+++ b/CSSE-3.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 8:38:01 AM</t>
+    <t>Report generated on: 7/14/2024, 4:33:14 PM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -799,19 +799,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="11">
-        <v>23</v>
-      </c>
-      <c r="D25" s="11">
-        <v>5</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="12">
+        <v>24</v>
+      </c>
+      <c r="D25" s="12">
+        <v>10</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="12">
         <v>14</v>
@@ -924,36 +924,36 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="11">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="E35" s="11" t="s">
         <v>45</v>
       </c>
     </row>

--- a/CSSE-3.xlsx
+++ b/CSSE-3.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 4:33:14 PM</t>
+    <t>Report generated on: 7/15/2024, 6:59:48 AM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -806,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="12">
         <v>10</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>30</v>
@@ -931,10 +931,10 @@
         <v>35</v>
       </c>
       <c r="C34" s="12">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D34" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>30</v>
@@ -1090,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="13">
         <v>18</v>
